--- a/crucibleWOrkflow/ig/all-profiles.xlsx
+++ b/crucibleWOrkflow/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T17:15:36+00:00</t>
+    <t>2024-02-12T13:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/crucibleWOrkflow/ig/all-profiles.xlsx
+++ b/crucibleWOrkflow/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T13:38:34+00:00</t>
+    <t>2024-02-12T13:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/crucibleWOrkflow/ig/all-profiles.xlsx
+++ b/crucibleWOrkflow/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T13:56:11+00:00</t>
+    <t>2024-02-12T14:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/crucibleWOrkflow/ig/all-profiles.xlsx
+++ b/crucibleWOrkflow/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T14:50:40+00:00</t>
+    <t>2024-02-12T15:11:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/crucibleWOrkflow/ig/all-profiles.xlsx
+++ b/crucibleWOrkflow/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T15:11:39+00:00</t>
+    <t>2024-02-12T15:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/crucibleWOrkflow/ig/all-profiles.xlsx
+++ b/crucibleWOrkflow/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T15:28:44+00:00</t>
+    <t>2024-02-12T16:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/crucibleWOrkflow/ig/all-profiles.xlsx
+++ b/crucibleWOrkflow/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T16:04:28+00:00</t>
+    <t>2024-02-12T16:17:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/crucibleWOrkflow/ig/all-profiles.xlsx
+++ b/crucibleWOrkflow/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T16:58:07+00:00</t>
+    <t>2024-02-12T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/crucibleWOrkflow/ig/all-profiles.xlsx
+++ b/crucibleWOrkflow/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T17:12:02+00:00</t>
+    <t>2024-02-12T17:26:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/crucibleWOrkflow/ig/all-profiles.xlsx
+++ b/crucibleWOrkflow/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T17:26:49+00:00</t>
+    <t>2024-02-12T17:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
